--- a/Import/Table Province.xlsx
+++ b/Import/Table Province.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\Lokasi\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9229B6A-770E-4578-9783-3E5054322FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BED14A-1D41-4664-BE4A-40B53A14FDE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{793FE122-190F-44F6-B470-F5EBC955FB45}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54A29CD-3432-4F14-93A9-25C898A0AC52}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>34</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>52</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>62</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>71</v>
       </c>
